--- a/public/templates/plantilla-importacion-productos.xlsx
+++ b/public/templates/plantilla-importacion-productos.xlsx
@@ -397,10 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -422,40 +425,46 @@
         <v>STOCK *</v>
       </c>
       <c r="G1" t="str">
+        <v>STOCK MINIMO</v>
+      </c>
+      <c r="H1" t="str">
         <v>CATEGORIA</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>DESCRIPCION</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>IMAGEN (URL o data)</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>FECHA VENCIMIENTO (YYYY-MM-DD)</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>VARIANTE NOMBRE (OPCIONAL)</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>VARIANTE CODIGO (OPCIONAL)</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>VARIANTE STOCK (OPCIONAL)</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>MARCA</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>MODELO</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>COLOR</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>TALLA</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>MATERIAL</v>
+      </c>
+      <c r="T1" t="str">
+        <v>PERMITE TOPPINGS (SI/NO)</v>
       </c>
     </row>
     <row r="2">
@@ -477,15 +486,15 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str">
         <v>Ropa</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>Camisa de algodÃ³n 100% color azul marino talla M</v>
       </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
       <c r="J2" t="str">
         <v/>
       </c>
@@ -499,19 +508,25 @@
         <v/>
       </c>
       <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
         <v>MarcaX</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>Modelo-Polo</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>Azul</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <v>M</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <v>AlgodÃ³n</v>
+      </c>
+      <c r="T2" t="str">
+        <v>no</v>
       </c>
     </row>
     <row r="3">
@@ -533,41 +548,47 @@
       <c r="F3" t="str">
         <v/>
       </c>
-      <c r="G3" t="str">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="str">
         <v>CosmÃ©tica</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>Base lÃ­quida para rostro</v>
       </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
       <c r="J3" t="str">
         <v/>
       </c>
       <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
         <v>Tono 01</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>SKU-003-T01</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>12</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>MarcaY</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>BasePro</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>Tono 01</v>
       </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
       <c r="R3" t="str">
         <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v>no</v>
       </c>
     </row>
     <row r="4">
@@ -589,41 +610,47 @@
       <c r="F4" t="str">
         <v/>
       </c>
-      <c r="G4" t="str">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="str">
         <v>CosmÃ©tica</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>Base lÃ­quida para rostro</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <v>Tono 02</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>SKU-003-T02</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <v>MarcaY</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <v>BasePro</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <v>Tono 02</v>
       </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
       <c r="R4" t="str">
         <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v>no</v>
       </c>
     </row>
     <row r="5">
@@ -645,15 +672,15 @@
       <c r="F5" t="str">
         <v/>
       </c>
-      <c r="G5" t="str">
-        <v/>
+      <c r="G5">
+        <v>8</v>
       </c>
       <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
         <v>Servicio de manicure</v>
       </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
       <c r="J5" t="str">
         <v/>
       </c>
@@ -677,11 +704,17 @@
       </c>
       <c r="Q5" t="str">
         <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v>no</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/plantilla-importacion-productos.xlsx
+++ b/public/templates/plantilla-importacion-productos.xlsx
@@ -1,41 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Crecemas\crece-mas\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE309F5-9B86-4CFD-A604-3C71A5C872FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+  <si>
+    <t>SKU-001</t>
+  </si>
+  <si>
+    <t>Camisa Polo Azul</t>
+  </si>
+  <si>
+    <t>fisico</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Camisa de algodÃ³n 100% color azul marino talla M</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MarcaX</t>
+  </si>
+  <si>
+    <t>Modelo-Polo</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>AlgodÃ³n</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SKU-003</t>
+  </si>
+  <si>
+    <t>Base Maquillaje</t>
+  </si>
+  <si>
+    <t>CosmÃ©tica</t>
+  </si>
+  <si>
+    <t>Base lÃ­quida para rostro</t>
+  </si>
+  <si>
+    <t>Tono 01</t>
+  </si>
+  <si>
+    <t>SKU-003-T01</t>
+  </si>
+  <si>
+    <t>MarcaY</t>
+  </si>
+  <si>
+    <t>BasePro</t>
+  </si>
+  <si>
+    <t>Tono 02</t>
+  </si>
+  <si>
+    <t>SKU-003-T02</t>
+  </si>
+  <si>
+    <t>SKU-004</t>
+  </si>
+  <si>
+    <t>Servicio Manicure</t>
+  </si>
+  <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>Servicio de manicure</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Precio de Compra</t>
+  </si>
+  <si>
+    <t>Precio de Venta</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Umbral de stock bajo</t>
+  </si>
+  <si>
+    <t>Permitir agregar toppings/adicionales</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Unidad de Peso</t>
+  </si>
+  <si>
+    <t>Dimensiones (L x A x H)</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Fecha de Vencimiento</t>
+  </si>
+  <si>
+    <t>Ingredientes</t>
+  </si>
+  <si>
+    <t>Variante Nombre</t>
+  </si>
+  <si>
+    <t>Variante Stock</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Duracion del Servicio</t>
+  </si>
+  <si>
+    <t>Alergenos</t>
+  </si>
+  <si>
+    <t>Calorias</t>
+  </si>
+  <si>
+    <t>Porcion</t>
+  </si>
+  <si>
+    <t>Variante Codigo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +218,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,86 +557,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CODIGO *</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NOMBRE *</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TIPO * (fisico|servicio|comida|accesorio)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PRECIO COMPRA *</v>
-      </c>
-      <c r="E1" t="str">
-        <v>PRECIO VENTA *</v>
-      </c>
-      <c r="F1" t="str">
-        <v>STOCK *</v>
-      </c>
-      <c r="G1" t="str">
-        <v>STOCK MINIMO</v>
-      </c>
-      <c r="H1" t="str">
-        <v>CATEGORIA</v>
-      </c>
-      <c r="I1" t="str">
-        <v>DESCRIPCION</v>
-      </c>
-      <c r="J1" t="str">
-        <v>IMAGEN (URL o data)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>FECHA VENCIMIENTO (YYYY-MM-DD)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>VARIANTE NOMBRE (OPCIONAL)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>VARIANTE CODIGO (OPCIONAL)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>VARIANTE STOCK (OPCIONAL)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>MARCA</v>
-      </c>
-      <c r="P1" t="str">
-        <v>MODELO</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>COLOR</v>
-      </c>
-      <c r="R1" t="str">
-        <v>TALLA</v>
-      </c>
-      <c r="S1" t="str">
-        <v>MATERIAL</v>
-      </c>
-      <c r="T1" t="str">
-        <v>PERMITE TOPPINGS (SI/NO)</v>
+    <row r="1" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SKU-001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Camisa Polo Azul</v>
-      </c>
-      <c r="C2" t="str">
-        <v>fisico</v>
+    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>25000</v>
@@ -489,55 +675,55 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="str">
-        <v>Ropa</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Camisa de algodÃ³n 100% color azul marino talla M</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v>MarcaX</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Modelo-Polo</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Azul</v>
-      </c>
-      <c r="R2" t="str">
-        <v>M</v>
-      </c>
-      <c r="S2" t="str">
-        <v>AlgodÃ³n</v>
-      </c>
-      <c r="T2" t="str">
-        <v>no</v>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>SKU-003</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Base Maquillaje</v>
-      </c>
-      <c r="C3" t="str">
-        <v>fisico</v>
+    <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>30000</v>
@@ -545,61 +731,61 @@
       <c r="E3">
         <v>60000</v>
       </c>
-      <c r="F3" t="str">
-        <v/>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="str">
-        <v>CosmÃ©tica</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Base lÃ­quida para rostro</v>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v>Tono 01</v>
-      </c>
-      <c r="M3" t="str">
-        <v>SKU-003-T01</v>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
       <c r="N3">
         <v>12</v>
       </c>
-      <c r="O3" t="str">
-        <v>MarcaY</v>
-      </c>
-      <c r="P3" t="str">
-        <v>BasePro</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>Tono 01</v>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v>no</v>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SKU-003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Base Maquillaje</v>
-      </c>
-      <c r="C4" t="str">
-        <v>fisico</v>
+    <row r="4" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>30000</v>
@@ -607,61 +793,61 @@
       <c r="E4">
         <v>60000</v>
       </c>
-      <c r="F4" t="str">
-        <v/>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="str">
-        <v>CosmÃ©tica</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Base lÃ­quida para rostro</v>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v>Tono 02</v>
-      </c>
-      <c r="M4" t="str">
-        <v>SKU-003-T02</v>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
       </c>
       <c r="N4">
         <v>8</v>
       </c>
-      <c r="O4" t="str">
-        <v>MarcaY</v>
-      </c>
-      <c r="P4" t="str">
-        <v>BasePro</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>Tono 02</v>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v>no</v>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SKU-004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Servicio Manicure</v>
-      </c>
-      <c r="C5" t="str">
-        <v>servicio</v>
+    <row r="5" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -669,52 +855,53 @@
       <c r="E5">
         <v>50000</v>
       </c>
-      <c r="F5" t="str">
-        <v/>
+      <c r="F5" t="s">
+        <v>5</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v>Servicio de manicure</v>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <v/>
-      </c>
-      <c r="R5" t="str">
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <v>no</v>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T5"/>
+    <ignoredError sqref="A2:T5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>